--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Tolliver.Fall.121219.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Tolliver.Fall.121219.xlsx_with_dialog_acts.xlsx
@@ -1227,12 +1227,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1689,12 +1689,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2281,12 +2281,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2323,12 +2323,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3037,12 +3037,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3079,12 +3079,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3583,12 +3583,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5011,12 +5011,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5095,12 +5095,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5641,12 +5641,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5767,12 +5767,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6779,12 +6779,12 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7417,12 +7417,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7799,12 +7799,12 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7967,12 +7967,12 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8135,12 +8135,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9059,12 +9059,12 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9143,12 +9143,12 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9773,12 +9773,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10613,12 +10613,12 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11037,12 +11037,12 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11163,12 +11163,12 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11247,12 +11247,12 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11373,12 +11373,12 @@
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11583,12 +11583,12 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11835,12 +11835,12 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11961,12 +11961,12 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12805,12 +12805,12 @@
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13225,12 +13225,12 @@
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14703,12 +14703,12 @@
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15173,12 +15173,12 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15345,12 +15345,12 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15513,12 +15513,12 @@
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15765,12 +15765,12 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15849,12 +15849,12 @@
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15891,12 +15891,12 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16101,12 +16101,12 @@
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16815,12 +16815,12 @@
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16987,12 +16987,12 @@
       <c r="H393" t="inlineStr"/>
       <c r="I393" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17243,12 +17243,12 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17709,12 +17709,12 @@
       <c r="H410" t="inlineStr"/>
       <c r="I410" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18087,12 +18087,12 @@
       <c r="H419" t="inlineStr"/>
       <c r="I419" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18129,12 +18129,12 @@
       <c r="H420" t="inlineStr"/>
       <c r="I420" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19597,12 +19597,12 @@
       <c r="H455" t="inlineStr"/>
       <c r="I455" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19807,12 +19807,12 @@
       <c r="H460" t="inlineStr"/>
       <c r="I460" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20101,12 +20101,12 @@
       <c r="H467" t="inlineStr"/>
       <c r="I467" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20311,12 +20311,12 @@
       <c r="H472" t="inlineStr"/>
       <c r="I472" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
